--- a/Document/시스템 기획서/신규프로젝트_부가 목표, 추가 보상.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_부가 목표, 추가 보상.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 부가미션은 강제가 아니라 선택으로 유저의 스트레스 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 시스템 룰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -97,155 +93,219 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>3. 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 미션을 클리어하기 전에 다음 미션으로 넘어갈시 현재의 부가목표 제거.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가 목표, 추가 보상 시스템 문서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 목표는 미션의 메인목표와 연관이있는 목표 여야함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 목표와 보상으로 추가적인 도전을 유도하기 위한 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 미션과 별개로 추가로 받은 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 미션 표시 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가 미션 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 섬멸 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 방어 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 생존 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 파괴 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>느려!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달성 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬멸미션중 맞지 않기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">N회 이하 피격 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른 시간내에 모든 적 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어 시간1분 이하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠, 빨라!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 제한적으로 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 N회만 사용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내힘에 10%만 내주지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 "진심"으로 할까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 사용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 1회 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그건 재 잔상입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 사용하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 N회 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 추가 보상 표시 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가미션은 강제가 아니라 선택으로 유저의 스트레스 최소화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 미션의 클리어 조건으로 무조건 달성해야 하는 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 플레이하는 멥의 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 스테이지 안에서 해야할 과제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메인 목표를 달성하고 활성화된 포탈로 이동시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  - </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3. 예외처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가 미션을 클리어하기 전에 다음 미션으로 넘어갈시 현재의 부가목표 제거.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부가 목표, 추가 보상 시스템 문서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가 목표는 미션의 메인목표와 연관이있는 목표 여야함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가 목표와 보상으로 추가적인 도전을 유도하기 위한 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부가 목표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 미션과 별개로 추가로 받은 목표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 부가 미션 표시 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부가 미션 리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 섬멸 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 방어 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 생존 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 파괴 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등장 확률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>느려!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>달성 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬멸미션중 맞지 않기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">N회 이하 피격 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠른 시간내에 모든 적 처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클리어 시간1분 이하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠, 빨라!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 제한적으로 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 N회만 사용하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내힘에 10%만 내주지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조금 "진심"으로 할까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 사용하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 1회 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그건 재 잔상입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 사용하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피 N회 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 추가 보상 표시 UI</t>
+    <t xml:space="preserve">  - 게임의 추가 목표에 보상을 주어 플레이에 변화를 주는 기능.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 유저에게 다른 플레이 방식에 대한 동기와 플레이에 대한 고민을 유도.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 추가 보상을 주어 보상에 대한 재미와 달성감을 증폭시키는 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 미션에 따라 보상이 달라짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 미션을 달성하고 클리어 시 보상 획득됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가 미션은 강제성을 뛰지않아 클리어 하지 않아도 진행에 불이익이 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 부가미션은 달성한 다음 메인 미션을 클리어한후 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1145,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -1197,20 +1257,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="46.25" customWidth="1"/>
+    <col min="13" max="13" width="48.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -1230,106 +1290,122 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -1551,7 +1627,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1559,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -1575,26 +1652,26 @@
   <sheetData>
     <row r="3" spans="2:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -1602,65 +1679,65 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1681,19 +1758,19 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1764,19 +1841,19 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>3</v>
@@ -1854,19 +1931,19 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>3</v>
@@ -1945,20 +2022,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="46.25" customWidth="1"/>
+    <col min="13" max="13" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -1966,50 +2043,91 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
       <c r="L7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
@@ -2023,17 +2141,17 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
